--- a/medicine/Enfance/Dylan_Pelot/Dylan_Pelot.xlsx
+++ b/medicine/Enfance/Dylan_Pelot/Dylan_Pelot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dylan Pelot, de son vrai nom Pierre-Dylan Grosdemange[réf. nécessaire], né le 21 juin 1969 à Bussang (Vosges) et mort le 22 janvier 2013 à Nancy, est un réalisateur, photographe, illustrateur et écrivain français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de l'écrivain Pierre Pelot, Dylan grandit à Saint-Maurice-sur-Moselle. Dès 1984, il entre à l'École de l'Image à Épinal. En 1987, il fait un stage à l'Atelier international de maquillage, à Paris. 
 Véritable touche-à-tout, il réalise plusieurs courts-métrages, participe en tant que bassiste et parolier à plusieurs groupes musicaux (« Les Gorets », « Les Fils de Crao ») dont il réalise aussi les clips. En parallèle, il écrit et/ou illustre des ouvrages pour les jeunes : la série Vincent (le chien jaune), écrite par son père Pierre Pelot, et qu'il illustre. Il illustre également des albums jeunesse écrits par Jean-Marc Mathis. Ils inverseront leurs rôles pour l'album Victor qui pète en 2006. Il a exposé dans divers endroits et participe régulièrement à des ateliers en tant que professeur de monstres.
-Il se fixe alors le projet d'écrire L'Encyclopédie des films introuvables, relayé par Fluide glacial. Dans les genres les plus divers, péplum, western, policier, science-fiction... il imagine synopsis, casting, fiche technique, crée l'affiche du film et des photos de tournage[2]. L'ouvrage Les grands succès du cinéma introuvable...  paraît à titre posthume, en 2014, édité par Fluide Glacial.
+Il se fixe alors le projet d'écrire L'Encyclopédie des films introuvables, relayé par Fluide glacial. Dans les genres les plus divers, péplum, western, policier, science-fiction... il imagine synopsis, casting, fiche technique, crée l'affiche du film et des photos de tournage. L'ouvrage Les grands succès du cinéma introuvable...  paraît à titre posthume, en 2014, édité par Fluide Glacial.
 Il meurt en janvier 2013 d'une rupture d'anévrisme dans le parc de la Pépinière, à Nancy, à l'âge de 43 ans.
 </t>
         </is>
@@ -547,57 +561,176 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Illustrateur
-Série Vincent
-La série Vincent, textes de son père, Pierre Pelot, éditée chez Pocket
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Vincent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La série Vincent, textes de son père, Pierre Pelot, éditée chez Pocket
 Vincent, le chien terriblement jaune, 1995
 Vincent en hiver, texte de son père, 2000
 Vincent et le canard à trois pattes, 2001
 Vincent et les évadés du zoo, 2002
-Vincent au cirque, 2003
-Autres
-La 42e sœur de Bébert, texte de Christiane Duchesne, Hachette jeunesse, 1998
+Vincent au cirque, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dylan_Pelot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dylan_Pelot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La 42e sœur de Bébert, texte de Christiane Duchesne, Hachette jeunesse, 1998
 Le chien qui souriait à l'envers, texte de Jean-Marc Mathis, Pocket jeunesse, 1998
 Claude Zilla, texte de Jean-Marc Mathis, Pocket jeunesse, 1998
 Noé et l'île volante, texte de Freddy Woets, Hachette jeunesse, 1998
 Le vampire du CE1, texte de Gudule, Pocket jeunesse, 2000
-Salut, l'extraterrestre !, texte de Gudule, Pocket jeunesse, 2001
-Auteur ou scénariste
-Que fait le Père Noël le reste de l'année ?, Gallimard-Jeunesse, 1998
- Victor qui pète, illustrations de Mathis, éd. Paquet, 2006
-Essai posthume
-Les grands succès du cinéma introuvable... , Dylan Pelot ; ouvrage conçu et dirigé par Gérard Viry-Babel, Fluide glacial, 2014</t>
+Salut, l'extraterrestre !, texte de Gudule, Pocket jeunesse, 2001</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Dylan_Pelot</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dylan_Pelot</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteur ou scénariste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Que fait le Père Noël le reste de l'année ?, Gallimard-Jeunesse, 1998
+ Victor qui pète, illustrations de Mathis, éd. Paquet, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dylan_Pelot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dylan_Pelot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essai posthume</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les grands succès du cinéma introuvable... , Dylan Pelot ; ouvrage conçu et dirigé par Gérard Viry-Babel, Fluide glacial, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dylan_Pelot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dylan_Pelot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Réalisateur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Court métrage
-La Nuit de l'invasion des nains de jardins venus de l'espace, France, 1997 - 8 minutes</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Court métrage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Nuit de l'invasion des nains de jardins venus de l'espace, France, 1997 - 8 minutes</t>
         </is>
       </c>
     </row>
